--- a/Jogos_do_Dia/2023-06-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>League</t>
   </si>
@@ -124,15 +124,15 @@
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
+    <t>Brazil Serie D</t>
+  </si>
+  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
     <t>Chile Primera B</t>
   </si>
   <si>
-    <t>Brazil Serie D</t>
-  </si>
-  <si>
     <t>Ecuador Primera Categoría Serie A</t>
   </si>
   <si>
@@ -154,64 +154,85 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Almirante Brown</t>
   </si>
   <si>
+    <t>Deportivo Riestra</t>
+  </si>
+  <si>
+    <t>Independiente FSJ</t>
+  </si>
+  <si>
     <t>Atlanta</t>
   </si>
   <si>
-    <t>Deportivo Riestra</t>
-  </si>
-  <si>
     <t>Chaco For Ever</t>
   </si>
   <si>
+    <t>Caxias</t>
+  </si>
+  <si>
     <t>Racing Córdoba</t>
   </si>
   <si>
+    <t>Botafogo PB</t>
+  </si>
+  <si>
+    <t>Univ. Concepción</t>
+  </si>
+  <si>
     <t>CSA</t>
   </si>
   <si>
-    <t>Botafogo PB</t>
-  </si>
-  <si>
-    <t>Univ. Concepción</t>
-  </si>
-  <si>
     <t>Democrata GV</t>
   </si>
   <si>
     <t>Técnico Universitario</t>
   </si>
   <si>
+    <t>São Bernardo</t>
+  </si>
+  <si>
     <t>Almagro</t>
   </si>
   <si>
+    <t>Quilmes</t>
+  </si>
+  <si>
+    <t>Aimoré</t>
+  </si>
+  <si>
     <t>Estudiantes Caseros</t>
   </si>
   <si>
-    <t>Quilmes</t>
-  </si>
-  <si>
     <t>Deportivo Maipú</t>
   </si>
   <si>
+    <t>Hercílio Luz</t>
+  </si>
+  <si>
     <t>Brown de Adrogué</t>
   </si>
   <si>
+    <t>Náutico</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
     <t>Aparecidense</t>
   </si>
   <si>
-    <t>Náutico</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
     <t>Nova Iguaçu</t>
   </si>
   <si>
     <t>Delfin SC</t>
+  </si>
+  <si>
+    <t>Volta Redonda</t>
   </si>
 </sst>
 </file>
@@ -573,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,19 +721,19 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I2">
-        <v>3.3</v>
+        <v>4.15</v>
       </c>
       <c r="J2">
         <v>1.11</v>
@@ -721,16 +742,16 @@
         <v>6</v>
       </c>
       <c r="L2">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="M2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="O2">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P2">
         <v>1.05</v>
@@ -807,102 +828,102 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G3">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H3">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="J3">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K3">
-        <v>5.85</v>
+        <v>6.35</v>
       </c>
       <c r="L3">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="M3">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="N3">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="O3">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="P3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="Q3">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="R3">
-        <v>2.27</v>
+        <v>2.11</v>
       </c>
       <c r="S3">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="T3">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="U3">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="V3">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W3">
-        <v>1.13</v>
+        <v>1.88</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="Z3">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="AA3">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="AB3">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AC3">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD3">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
       <c r="AE3">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AF3">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="AG3">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AH3">
-        <v>2.98</v>
+        <v>2.48</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>45096</v>
@@ -911,100 +932,100 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G4">
-        <v>2.35</v>
+        <v>1.57</v>
       </c>
       <c r="H4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I4">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="J4">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M4">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N4">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P4">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="Y4">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="Z4">
-        <v>1.02</v>
+        <v>1.49</v>
       </c>
       <c r="AA4">
-        <v>2.6</v>
+        <v>2.98</v>
       </c>
       <c r="AB4">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>3.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1015,103 +1036,103 @@
         <v>45096</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G5">
-        <v>2.95</v>
+        <v>2.35</v>
       </c>
       <c r="H5">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="I5">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="J5">
         <v>1.09</v>
       </c>
       <c r="K5">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="L5">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="M5">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="N5">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="O5">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="P5">
         <v>1.05</v>
       </c>
       <c r="Q5">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R5">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="S5">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T5">
+        <v>1.32</v>
+      </c>
+      <c r="U5">
         <v>1.38</v>
       </c>
-      <c r="U5">
-        <v>1.39</v>
-      </c>
       <c r="V5">
+        <v>1.6</v>
+      </c>
+      <c r="W5">
+        <v>1.13</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
         <v>1.51</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
+        <v>1.23</v>
+      </c>
+      <c r="AA5">
+        <v>2.74</v>
+      </c>
+      <c r="AB5">
         <v>1.63</v>
       </c>
-      <c r="X5">
-        <v>1.63</v>
-      </c>
-      <c r="Y5">
-        <v>1.61</v>
-      </c>
-      <c r="Z5">
-        <v>1.39</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>1.62</v>
-      </c>
       <c r="AC5">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD5">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="AE5">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="AF5">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="AG5">
-        <v>1.83</v>
+        <v>2.29</v>
       </c>
       <c r="AH5">
-        <v>2.25</v>
+        <v>2.98</v>
       </c>
       <c r="AI5">
-        <v>3.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1122,103 +1143,103 @@
         <v>45096</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G6">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H6">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I6">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K6">
-        <v>6.15</v>
+        <v>5.8</v>
       </c>
       <c r="L6">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="N6">
         <v>2.55</v>
       </c>
       <c r="O6">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P6">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Q6">
+        <v>1.47</v>
+      </c>
+      <c r="R6">
+        <v>2.23</v>
+      </c>
+      <c r="S6">
+        <v>1.62</v>
+      </c>
+      <c r="T6">
+        <v>1.38</v>
+      </c>
+      <c r="U6">
+        <v>1.39</v>
+      </c>
+      <c r="V6">
+        <v>1.51</v>
+      </c>
+      <c r="W6">
+        <v>1.63</v>
+      </c>
+      <c r="X6">
+        <v>1.63</v>
+      </c>
+      <c r="Y6">
+        <v>1.61</v>
+      </c>
+      <c r="Z6">
+        <v>1.39</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>1.62</v>
+      </c>
+      <c r="AC6">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD6">
+        <v>2.78</v>
+      </c>
+      <c r="AE6">
+        <v>1.23</v>
+      </c>
+      <c r="AF6">
         <v>1.5</v>
       </c>
-      <c r="R6">
-        <v>2.19</v>
-      </c>
-      <c r="S6">
-        <v>1.64</v>
-      </c>
-      <c r="T6">
-        <v>1.33</v>
-      </c>
-      <c r="U6">
-        <v>1.37</v>
-      </c>
-      <c r="V6">
-        <v>1.6</v>
-      </c>
-      <c r="W6">
-        <v>1.5</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1.63</v>
-      </c>
-      <c r="Z6">
-        <v>1.06</v>
-      </c>
-      <c r="AA6">
-        <v>2.69</v>
-      </c>
-      <c r="AB6">
-        <v>1.59</v>
-      </c>
-      <c r="AC6">
-        <v>8.5</v>
-      </c>
-      <c r="AD6">
-        <v>2.95</v>
-      </c>
-      <c r="AE6">
-        <v>1.56</v>
-      </c>
-      <c r="AF6">
-        <v>1.97</v>
-      </c>
       <c r="AG6">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="AH6">
-        <v>3.48</v>
+        <v>2.25</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1229,79 +1250,79 @@
         <v>45096</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G7">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="H7">
+        <v>3.1</v>
+      </c>
+      <c r="I7">
+        <v>3.4</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2.7</v>
+      </c>
+      <c r="O7">
+        <v>1.44</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>4.75</v>
-      </c>
-      <c r="J7">
-        <v>1.12</v>
-      </c>
-      <c r="K7">
-        <v>5.5</v>
-      </c>
-      <c r="L7">
-        <v>1.5</v>
-      </c>
-      <c r="M7">
-        <v>2.3</v>
-      </c>
-      <c r="N7">
-        <v>2.5</v>
-      </c>
-      <c r="O7">
-        <v>1.47</v>
-      </c>
-      <c r="P7">
-        <v>1.56</v>
-      </c>
-      <c r="Q7">
-        <v>2.3</v>
-      </c>
-      <c r="R7">
-        <v>2.3</v>
-      </c>
-      <c r="S7">
-        <v>1.55</v>
-      </c>
-      <c r="T7">
-        <v>1.15</v>
-      </c>
-      <c r="U7">
+      <c r="X7">
         <v>1.25</v>
       </c>
-      <c r="V7">
-        <v>1.8</v>
-      </c>
-      <c r="W7">
-        <v>1.75</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
       <c r="Y7">
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
       <c r="Z7">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AA7">
-        <v>2.85</v>
+        <v>3.29</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1319,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1330,106 +1351,106 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
         <v>45096</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G8">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="H8">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I8">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="J8">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="K8">
-        <v>5.5</v>
+        <v>6.15</v>
       </c>
       <c r="L8">
         <v>1.5</v>
       </c>
       <c r="M8">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="N8">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="O8">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P8">
-        <v>1.59</v>
+        <v>1.03</v>
       </c>
       <c r="Q8">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R8">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="S8">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="T8">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U8">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="V8">
+        <v>1.6</v>
+      </c>
+      <c r="W8">
         <v>1.5</v>
-      </c>
-      <c r="W8">
-        <v>1.67</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="Z8">
-        <v>1.64</v>
+        <v>1.06</v>
       </c>
       <c r="AA8">
-        <v>3.13</v>
+        <v>2.69</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1446,55 +1467,55 @@
         <v>43</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G9">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="H9">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="I9">
-        <v>2.78</v>
+        <v>3.35</v>
       </c>
       <c r="J9">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="K9">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="L9">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="M9">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N9">
-        <v>1.99</v>
+        <v>2.59</v>
       </c>
       <c r="O9">
-        <v>1.77</v>
+        <v>1.38</v>
       </c>
       <c r="P9">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="Q9">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S9">
-        <v>1.91</v>
+        <v>1.66</v>
       </c>
       <c r="T9">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="U9">
         <v>1.33</v>
@@ -1503,28 +1524,28 @@
         <v>1.5</v>
       </c>
       <c r="W9">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="X9">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="Z9">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="AA9">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1533,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1550,79 +1571,79 @@
         <v>45096</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Y10">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="Z10">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AA10">
-        <v>2.93</v>
+        <v>3.07</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1651,109 +1672,430 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2">
         <v>45096</v>
       </c>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11">
+        <v>1.75</v>
+      </c>
+      <c r="H11">
+        <v>3.15</v>
+      </c>
+      <c r="I11">
+        <v>4.6</v>
+      </c>
+      <c r="J11">
+        <v>1.12</v>
+      </c>
+      <c r="K11">
+        <v>5.5</v>
+      </c>
+      <c r="L11">
+        <v>1.5</v>
+      </c>
+      <c r="M11">
+        <v>2.3</v>
+      </c>
+      <c r="N11">
+        <v>2.5</v>
+      </c>
+      <c r="O11">
+        <v>1.47</v>
+      </c>
+      <c r="P11">
+        <v>1.56</v>
+      </c>
+      <c r="Q11">
+        <v>2.3</v>
+      </c>
+      <c r="R11">
+        <v>2.3</v>
+      </c>
+      <c r="S11">
+        <v>1.55</v>
+      </c>
+      <c r="T11">
+        <v>1.15</v>
+      </c>
+      <c r="U11">
+        <v>1.25</v>
+      </c>
+      <c r="V11">
+        <v>1.8</v>
+      </c>
+      <c r="W11">
+        <v>1.75</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1.77</v>
+      </c>
+      <c r="Z11">
+        <v>1.08</v>
+      </c>
+      <c r="AA11">
+        <v>2.85</v>
+      </c>
+      <c r="AB11">
+        <v>1.57</v>
+      </c>
+      <c r="AC11">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11">
+        <v>2.72</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>1.49</v>
+      </c>
+      <c r="AG11">
+        <v>1.93</v>
+      </c>
+      <c r="AH11">
+        <v>2.18</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45096</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12">
+        <v>1.73</v>
+      </c>
+      <c r="H12">
+        <v>3.6</v>
+      </c>
+      <c r="I12">
+        <v>4.2</v>
+      </c>
+      <c r="J12">
+        <v>1.06</v>
+      </c>
+      <c r="K12">
+        <v>8.25</v>
+      </c>
+      <c r="L12">
+        <v>1.37</v>
+      </c>
+      <c r="M12">
+        <v>2.75</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+      <c r="O12">
+        <v>1.7</v>
+      </c>
+      <c r="P12">
+        <v>1.5</v>
+      </c>
+      <c r="Q12">
+        <v>2.4</v>
+      </c>
+      <c r="R12">
+        <v>2.1</v>
+      </c>
+      <c r="S12">
+        <v>1.68</v>
+      </c>
+      <c r="T12">
+        <v>1.15</v>
+      </c>
+      <c r="U12">
+        <v>1.25</v>
+      </c>
+      <c r="V12">
+        <v>1.83</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1.67</v>
+      </c>
+      <c r="Z12">
+        <v>1.26</v>
+      </c>
+      <c r="AA12">
+        <v>2.93</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45096</v>
+      </c>
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11">
-        <v>1.87</v>
-      </c>
-      <c r="H11">
-        <v>3.25</v>
-      </c>
-      <c r="I11">
-        <v>4.2</v>
-      </c>
-      <c r="J11">
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13">
+        <v>1.74</v>
+      </c>
+      <c r="H13">
+        <v>3.5</v>
+      </c>
+      <c r="I13">
+        <v>4.7</v>
+      </c>
+      <c r="J13">
         <v>1.08</v>
       </c>
-      <c r="K11">
+      <c r="K13">
         <v>7.25</v>
       </c>
-      <c r="L11">
+      <c r="L13">
         <v>1.42</v>
       </c>
-      <c r="M11">
+      <c r="M13">
         <v>2.6</v>
       </c>
-      <c r="N11">
+      <c r="N13">
         <v>2.25</v>
       </c>
-      <c r="O11">
+      <c r="O13">
+        <v>1.53</v>
+      </c>
+      <c r="P13">
+        <v>1.53</v>
+      </c>
+      <c r="Q13">
+        <v>2.37</v>
+      </c>
+      <c r="R13">
+        <v>2.1</v>
+      </c>
+      <c r="S13">
+        <v>1.63</v>
+      </c>
+      <c r="T13">
+        <v>1.17</v>
+      </c>
+      <c r="U13">
+        <v>1.28</v>
+      </c>
+      <c r="V13">
+        <v>1.85</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>0.67</v>
+      </c>
+      <c r="Y13">
+        <v>1.35</v>
+      </c>
+      <c r="Z13">
+        <v>0.9</v>
+      </c>
+      <c r="AA13">
+        <v>2.25</v>
+      </c>
+      <c r="AB13">
         <v>1.55</v>
       </c>
-      <c r="P11">
+      <c r="AC13">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD13">
+        <v>2.89</v>
+      </c>
+      <c r="AE13">
+        <v>1.39</v>
+      </c>
+      <c r="AF13">
+        <v>1.8</v>
+      </c>
+      <c r="AG13">
+        <v>2.19</v>
+      </c>
+      <c r="AH13">
+        <v>2.98</v>
+      </c>
+      <c r="AI13">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45096</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14">
+        <v>1.6</v>
+      </c>
+      <c r="H14">
+        <v>3.5</v>
+      </c>
+      <c r="I14">
+        <v>5.25</v>
+      </c>
+      <c r="J14">
+        <v>1.07</v>
+      </c>
+      <c r="K14">
+        <v>6.15</v>
+      </c>
+      <c r="L14">
+        <v>1.5</v>
+      </c>
+      <c r="M14">
+        <v>2.3</v>
+      </c>
+      <c r="N14">
+        <v>2.35</v>
+      </c>
+      <c r="O14">
+        <v>1.52</v>
+      </c>
+      <c r="P14">
+        <v>1.02</v>
+      </c>
+      <c r="Q14">
+        <v>1.49</v>
+      </c>
+      <c r="R14">
+        <v>2.4</v>
+      </c>
+      <c r="S14">
+        <v>1.54</v>
+      </c>
+      <c r="T14">
+        <v>1.1</v>
+      </c>
+      <c r="U14">
+        <v>1.28</v>
+      </c>
+      <c r="V14">
+        <v>2.04</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1.76</v>
+      </c>
+      <c r="Z14">
+        <v>1.35</v>
+      </c>
+      <c r="AA14">
+        <v>3.11</v>
+      </c>
+      <c r="AB14">
         <v>1.53</v>
       </c>
-      <c r="Q11">
-        <v>2.37</v>
-      </c>
-      <c r="R11">
-        <v>2.1</v>
-      </c>
-      <c r="S11">
-        <v>1.63</v>
-      </c>
-      <c r="T11">
-        <v>1.17</v>
-      </c>
-      <c r="U11">
-        <v>1.28</v>
-      </c>
-      <c r="V11">
-        <v>1.85</v>
-      </c>
-      <c r="W11">
-        <v>2</v>
-      </c>
-      <c r="X11">
-        <v>0.67</v>
-      </c>
-      <c r="Y11">
-        <v>1.35</v>
-      </c>
-      <c r="Z11">
-        <v>0.9</v>
-      </c>
-      <c r="AA11">
-        <v>2.25</v>
-      </c>
-      <c r="AB11">
-        <v>1.55</v>
-      </c>
-      <c r="AC11">
+      <c r="AC14">
         <v>8.699999999999999</v>
       </c>
-      <c r="AD11">
-        <v>2.89</v>
-      </c>
-      <c r="AE11">
-        <v>1.39</v>
-      </c>
-      <c r="AF11">
-        <v>1.8</v>
-      </c>
-      <c r="AG11">
-        <v>2.19</v>
-      </c>
-      <c r="AH11">
-        <v>2.98</v>
-      </c>
-      <c r="AI11">
-        <v>4.8</v>
+      <c r="AD14">
+        <v>2.86</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>1.56</v>
+      </c>
+      <c r="AG14">
+        <v>1.93</v>
+      </c>
+      <c r="AH14">
+        <v>2.4</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-06-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>League</t>
   </si>
@@ -163,30 +163,27 @@
     <t>Deportivo Riestra</t>
   </si>
   <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
     <t>Independiente FSJ</t>
   </si>
   <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
     <t>Chaco For Ever</t>
   </si>
   <si>
+    <t>Racing Córdoba</t>
+  </si>
+  <si>
     <t>Caxias</t>
   </si>
   <si>
-    <t>Racing Córdoba</t>
-  </si>
-  <si>
     <t>Botafogo PB</t>
   </si>
   <si>
     <t>Univ. Concepción</t>
   </si>
   <si>
-    <t>CSA</t>
-  </si>
-  <si>
     <t>Democrata GV</t>
   </si>
   <si>
@@ -202,28 +199,25 @@
     <t>Quilmes</t>
   </si>
   <si>
+    <t>Estudiantes Caseros</t>
+  </si>
+  <si>
     <t>Aimoré</t>
   </si>
   <si>
-    <t>Estudiantes Caseros</t>
-  </si>
-  <si>
     <t>Deportivo Maipú</t>
   </si>
   <si>
+    <t>Brown de Adrogué</t>
+  </si>
+  <si>
     <t>Hercílio Luz</t>
   </si>
   <si>
-    <t>Brown de Adrogué</t>
-  </si>
-  <si>
     <t>Náutico</t>
   </si>
   <si>
     <t>Rangers</t>
-  </si>
-  <si>
-    <t>Aparecidense</t>
   </si>
   <si>
     <t>Nova Iguaçu</t>
@@ -594,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,16 +718,16 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="H2">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="I2">
-        <v>4.15</v>
+        <v>3.35</v>
       </c>
       <c r="J2">
         <v>1.11</v>
@@ -742,16 +736,16 @@
         <v>6</v>
       </c>
       <c r="L2">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="N2">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="O2">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P2">
         <v>1.05</v>
@@ -775,10 +769,10 @@
         <v>1.78</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X2">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="Y2">
         <v>1.56</v>
@@ -831,16 +825,16 @@
         <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>3.85</v>
+        <v>2.65</v>
       </c>
       <c r="J3">
         <v>1.07</v>
@@ -855,10 +849,10 @@
         <v>2.48</v>
       </c>
       <c r="N3">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="O3">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="P3">
         <v>1.02</v>
@@ -882,7 +876,7 @@
         <v>1.59</v>
       </c>
       <c r="W3">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -923,7 +917,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>45096</v>
@@ -932,97 +926,97 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4">
-        <v>1.57</v>
+        <v>2.32</v>
       </c>
       <c r="H4">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="I4">
-        <v>5.5</v>
+        <v>3.05</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="L4">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="M4">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="O4">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W4">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="X4">
-        <v>0.33</v>
+        <v>0.89</v>
       </c>
       <c r="Y4">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Z4">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="AA4">
+        <v>2.74</v>
+      </c>
+      <c r="AB4">
+        <v>1.63</v>
+      </c>
+      <c r="AC4">
+        <v>8</v>
+      </c>
+      <c r="AD4">
+        <v>2.82</v>
+      </c>
+      <c r="AE4">
+        <v>1.41</v>
+      </c>
+      <c r="AF4">
+        <v>1.76</v>
+      </c>
+      <c r="AG4">
+        <v>2.29</v>
+      </c>
+      <c r="AH4">
         <v>2.98</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1030,7 +1024,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>45096</v>
@@ -1039,97 +1033,97 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5">
-        <v>2.35</v>
+        <v>1.53</v>
       </c>
       <c r="H5">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="I5">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="J5">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="K5">
-        <v>5.85</v>
+        <v>6.75</v>
       </c>
       <c r="L5">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="M5">
+        <v>2.4</v>
+      </c>
+      <c r="N5">
+        <v>2.12</v>
+      </c>
+      <c r="O5">
+        <v>1.57</v>
+      </c>
+      <c r="P5">
+        <v>1.53</v>
+      </c>
+      <c r="Q5">
+        <v>2.34</v>
+      </c>
+      <c r="R5">
+        <v>2.38</v>
+      </c>
+      <c r="S5">
+        <v>1.49</v>
+      </c>
+      <c r="T5">
+        <v>1.1</v>
+      </c>
+      <c r="U5">
+        <v>1.27</v>
+      </c>
+      <c r="V5">
+        <v>2.14</v>
+      </c>
+      <c r="W5">
         <v>2.2</v>
       </c>
-      <c r="N5">
-        <v>2.65</v>
-      </c>
-      <c r="O5">
-        <v>1.44</v>
-      </c>
-      <c r="P5">
-        <v>1.05</v>
-      </c>
-      <c r="Q5">
-        <v>1.46</v>
-      </c>
-      <c r="R5">
-        <v>2.27</v>
-      </c>
-      <c r="S5">
-        <v>1.6</v>
-      </c>
-      <c r="T5">
-        <v>1.32</v>
-      </c>
-      <c r="U5">
-        <v>1.38</v>
-      </c>
-      <c r="V5">
-        <v>1.6</v>
-      </c>
-      <c r="W5">
-        <v>1.13</v>
-      </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y5">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="Z5">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="AA5">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="AB5">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AH5">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1152,16 +1146,16 @@
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="H6">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2.12</v>
       </c>
       <c r="J6">
         <v>1.09</v>
@@ -1170,16 +1164,16 @@
         <v>5.8</v>
       </c>
       <c r="L6">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M6">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="N6">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="O6">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="P6">
         <v>1.05</v>
@@ -1203,10 +1197,10 @@
         <v>1.51</v>
       </c>
       <c r="W6">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="X6">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="Y6">
         <v>1.61</v>
@@ -1244,7 +1238,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
         <v>45096</v>
@@ -1253,97 +1247,97 @@
         <v>42</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H7">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I7">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="N7">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="O7">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="X7">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y7">
-        <v>2.09</v>
+        <v>1.63</v>
       </c>
       <c r="Z7">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AA7">
-        <v>3.29</v>
+        <v>2.69</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AG7">
-        <v>2.25</v>
+        <v>2.46</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1351,7 +1345,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
         <v>45096</v>
@@ -1360,97 +1354,97 @@
         <v>42</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8">
+        <v>1.91</v>
+      </c>
+      <c r="H8">
+        <v>3.2</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>1.07</v>
+      </c>
+      <c r="K8">
+        <v>6.25</v>
+      </c>
+      <c r="L8">
+        <v>1.53</v>
+      </c>
+      <c r="M8">
+        <v>2.27</v>
+      </c>
+      <c r="N8">
         <v>2.5</v>
       </c>
-      <c r="H8">
-        <v>2.9</v>
-      </c>
-      <c r="I8">
-        <v>2.75</v>
-      </c>
-      <c r="J8">
-        <v>1.08</v>
-      </c>
-      <c r="K8">
-        <v>6.15</v>
-      </c>
-      <c r="L8">
+      <c r="O8">
         <v>1.5</v>
       </c>
-      <c r="M8">
-        <v>2.48</v>
-      </c>
-      <c r="N8">
-        <v>2.65</v>
-      </c>
-      <c r="O8">
-        <v>1.44</v>
-      </c>
       <c r="P8">
-        <v>1.03</v>
+        <v>1.61</v>
       </c>
       <c r="Q8">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="R8">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="S8">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="T8">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="U8">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="V8">
+        <v>1.63</v>
+      </c>
+      <c r="W8">
+        <v>2.25</v>
+      </c>
+      <c r="X8">
         <v>1.6</v>
       </c>
-      <c r="W8">
-        <v>1.5</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
       <c r="Y8">
-        <v>1.63</v>
+        <v>2.09</v>
       </c>
       <c r="Z8">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="AA8">
-        <v>2.69</v>
+        <v>3.29</v>
       </c>
       <c r="AB8">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>2.46</v>
+        <v>2.25</v>
       </c>
       <c r="AH8">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1473,7 +1467,7 @@
         <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9">
         <v>2.25</v>
@@ -1494,7 +1488,7 @@
         <v>1.5</v>
       </c>
       <c r="M9">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
         <v>2.59</v>
@@ -1524,7 +1518,7 @@
         <v>1.5</v>
       </c>
       <c r="W9">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -1551,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG9">
         <v>1.64</v>
@@ -1580,7 +1574,7 @@
         <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>2.47</v>
@@ -1604,10 +1598,10 @@
         <v>3.25</v>
       </c>
       <c r="N10">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="O10">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="P10">
         <v>1.4</v>
@@ -1631,10 +1625,10 @@
         <v>1.5</v>
       </c>
       <c r="W10">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="X10">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>1.6</v>
@@ -1672,13 +1666,13 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2">
         <v>45096</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -1687,46 +1681,46 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H11">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="I11">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="K11">
-        <v>5.5</v>
+        <v>8.25</v>
       </c>
       <c r="L11">
+        <v>1.37</v>
+      </c>
+      <c r="M11">
+        <v>2.75</v>
+      </c>
+      <c r="N11">
+        <v>2.2</v>
+      </c>
+      <c r="O11">
+        <v>1.65</v>
+      </c>
+      <c r="P11">
         <v>1.5</v>
       </c>
-      <c r="M11">
-        <v>2.3</v>
-      </c>
-      <c r="N11">
-        <v>2.5</v>
-      </c>
-      <c r="O11">
-        <v>1.47</v>
-      </c>
-      <c r="P11">
-        <v>1.56</v>
-      </c>
       <c r="Q11">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R11">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S11">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="T11">
         <v>1.15</v>
@@ -1735,43 +1729,43 @@
         <v>1.25</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="Z11">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="AA11">
-        <v>2.85</v>
+        <v>2.93</v>
       </c>
       <c r="AB11">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1779,322 +1773,215 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2">
         <v>45096</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H12">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I12">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J12">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K12">
-        <v>8.25</v>
+        <v>7.25</v>
       </c>
       <c r="L12">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M12">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O12">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="P12">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q12">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R12">
         <v>2.1</v>
       </c>
       <c r="S12">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="T12">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="U12">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V12">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="Y12">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="Z12">
-        <v>1.26</v>
+        <v>0.9</v>
       </c>
       <c r="AA12">
-        <v>2.93</v>
+        <v>2.25</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>45096</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="H13">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I13">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K13">
-        <v>7.25</v>
+        <v>6.15</v>
       </c>
       <c r="L13">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M13">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="N13">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="O13">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="P13">
-        <v>1.53</v>
+        <v>1.02</v>
       </c>
       <c r="Q13">
-        <v>2.37</v>
+        <v>1.49</v>
       </c>
       <c r="R13">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="S13">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="T13">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="U13">
         <v>1.28</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X13">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Y13">
+        <v>1.76</v>
+      </c>
+      <c r="Z13">
         <v>1.35</v>
       </c>
-      <c r="Z13">
-        <v>0.9</v>
-      </c>
       <c r="AA13">
-        <v>2.25</v>
+        <v>3.11</v>
       </c>
       <c r="AB13">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AC13">
         <v>8.699999999999999</v>
       </c>
       <c r="AD13">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="AE13">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AF13">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="AG13">
-        <v>2.19</v>
+        <v>1.93</v>
       </c>
       <c r="AH13">
-        <v>2.98</v>
+        <v>2.4</v>
       </c>
       <c r="AI13">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45096</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14">
-        <v>1.6</v>
-      </c>
-      <c r="H14">
-        <v>3.5</v>
-      </c>
-      <c r="I14">
-        <v>5.25</v>
-      </c>
-      <c r="J14">
-        <v>1.07</v>
-      </c>
-      <c r="K14">
-        <v>6.15</v>
-      </c>
-      <c r="L14">
-        <v>1.5</v>
-      </c>
-      <c r="M14">
-        <v>2.3</v>
-      </c>
-      <c r="N14">
-        <v>2.35</v>
-      </c>
-      <c r="O14">
-        <v>1.52</v>
-      </c>
-      <c r="P14">
-        <v>1.02</v>
-      </c>
-      <c r="Q14">
-        <v>1.49</v>
-      </c>
-      <c r="R14">
-        <v>2.4</v>
-      </c>
-      <c r="S14">
-        <v>1.54</v>
-      </c>
-      <c r="T14">
-        <v>1.1</v>
-      </c>
-      <c r="U14">
-        <v>1.28</v>
-      </c>
-      <c r="V14">
-        <v>2.04</v>
-      </c>
-      <c r="W14">
-        <v>3</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>1.76</v>
-      </c>
-      <c r="Z14">
-        <v>1.35</v>
-      </c>
-      <c r="AA14">
-        <v>3.11</v>
-      </c>
-      <c r="AB14">
-        <v>1.53</v>
-      </c>
-      <c r="AC14">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AD14">
-        <v>2.86</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>1.56</v>
-      </c>
-      <c r="AG14">
-        <v>1.93</v>
-      </c>
-      <c r="AH14">
-        <v>2.4</v>
-      </c>
-      <c r="AI14">
         <v>0</v>
       </c>
     </row>
